--- a/xlsx_files/Grey classroom.xlsx
+++ b/xlsx_files/Grey classroom.xlsx
@@ -551,8 +551,8 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>CS SOPHOMORE: HISTORY OF KYRGYZSTAN
-09:00-10:00</t>
+          <t>CS JUNIOR: OPERATING SYSTEMS AND SYSTEM PROGRAMMING
+09:00-10:30</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>CS JUNIOR: COMPUTER GRAPHICS
+          <t>CS SENIOR: SAFETY MANAGEMENT
 09:00-10:30</t>
         </is>
       </c>
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B9" s="6" t="n"/>
-      <c r="C9" s="7" t="n"/>
+      <c r="C9" s="6" t="n"/>
       <c r="D9" s="6" t="n"/>
       <c r="E9" s="6" t="n"/>
       <c r="F9" s="6" t="n"/>
@@ -617,6 +617,7 @@
         </is>
       </c>
       <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
       <c r="E10" s="6" t="n"/>
       <c r="F10" s="6" t="n"/>
@@ -628,6 +629,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
       <c r="F11" s="7" t="n"/>
@@ -660,7 +662,7 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>CS JUNIOR: OPERATING SYSTEMS AND SYSTEM PROGRAMMING
+          <t>CS JUNIOR: MACHINE LEARNING
 11:00-12:30</t>
         </is>
       </c>
@@ -672,7 +674,7 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>CS SENIOR: SAFETY MANAGEMENT
+          <t>CS SENIOR: FINAL YEAR PROJECT II
 11:00-12:30</t>
         </is>
       </c>
@@ -799,7 +801,7 @@
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>CS JUNIOR: MACHINE LEARNING
+          <t>CS JUNIOR: COMPUTER GRAPHICS
 14:00-15:30</t>
         </is>
       </c>
@@ -811,7 +813,7 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>CS SENIOR: FINAL YEAR PROJECT II
+          <t>CM FRESHMEN: ENGLISH WRITING FOR MEDIA
 14:00-15:30</t>
         </is>
       </c>
@@ -910,7 +912,7 @@
       </c>
       <c r="C34" s="5" t="inlineStr">
         <is>
-          <t>CS JUNIOR: COMPUTER GRAPHICS
+          <t>CS SENIOR: SAFETY MANAGEMENT
 16:00-17:30</t>
         </is>
       </c>
@@ -922,7 +924,7 @@
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>CM FRESHMEN: ENGLISH WRITING FOR MEDIA
+          <t>CM FRESHMEN: RUSSIAN LANGUAGE (BEGINNER LEVEL)
 16:00-17:30</t>
         </is>
       </c>
@@ -1189,8 +1191,8 @@
     <mergeCell ref="D26:D31"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F14:F19"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C6:C11"/>
     <mergeCell ref="D34:D39"/>
     <mergeCell ref="F34:F39"/>
     <mergeCell ref="D6:D11"/>
@@ -1210,7 +1212,7 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="D14:D19"/>
-    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
